--- a/Ford/ExcelToXml.xlsx
+++ b/Ford/ExcelToXml.xlsx
@@ -7,32 +7,24 @@
     <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="10035"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
   <si>
     <t>Expected Value</t>
   </si>
   <si>
-    <t>Login_Validate_User_logout</t>
-  </si>
-  <si>
     <t xml:space="preserve">User should get the webpage </t>
   </si>
   <si>
-    <t>User should be able to see that the title of the page matches</t>
-  </si>
-  <si>
-    <t>TC01</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -60,62 +52,314 @@
     <t>Step_Description</t>
   </si>
   <si>
+    <t>This test case is to verify if the user is able to login to geometrix website</t>
+  </si>
+  <si>
+    <t>http://localhost:4503/content/geometrixx-outdoors/en.html</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>This test case is to verify if links are present on homepage or not.</t>
+  </si>
+  <si>
+    <t>Open URL</t>
+  </si>
+  <si>
+    <t>xpath://input[1]</t>
+  </si>
+  <si>
+    <t>Click on button</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
     <t>TC02</t>
   </si>
   <si>
-    <t>This test case is to verify if the user is able to login to geometrix website</t>
-  </si>
-  <si>
-    <t>http://localhost:4503/content/geometrixx-outdoors/en.html</t>
-  </si>
-  <si>
-    <t>LAUNCH_1</t>
-  </si>
-  <si>
-    <t>Geometrixx Outdoors</t>
-  </si>
-  <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>This test case is to verify if links are present on homepage or not.</t>
-  </si>
-  <si>
-    <t>Validate_Links_Present</t>
-  </si>
-  <si>
-    <t>Open URL</t>
-  </si>
-  <si>
-    <t>Verify title of the page</t>
-  </si>
-  <si>
-    <t>LAUNCH_2</t>
-  </si>
-  <si>
-    <t>VERIFY TITLE_2</t>
-  </si>
-  <si>
-    <t>xpath://input[1]</t>
-  </si>
-  <si>
-    <t>id:username</t>
-  </si>
-  <si>
-    <t>Login_Trial</t>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>TC04</t>
   </si>
   <si>
     <t>Trial_1</t>
   </si>
   <si>
-    <t>Click on button</t>
+    <t>Currently I have assumed that below columns are mandatory for XML generation and code would fail if values are missing in these columns:</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>test data</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>multiple tc</t>
+  </si>
+  <si>
+    <t>1 tc</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>Login1</t>
+  </si>
+  <si>
+    <t>Login2</t>
+  </si>
+  <si>
+    <t>func1</t>
+  </si>
+  <si>
+    <t>func2</t>
+  </si>
+  <si>
+    <t>xpath://input[2]</t>
+  </si>
+  <si>
+    <t>Login3</t>
+  </si>
+  <si>
+    <t>Login4</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>Login5</t>
+  </si>
+  <si>
+    <t>func5</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>Login6</t>
+  </si>
+  <si>
+    <t>testcase name</t>
+  </si>
+  <si>
+    <t>xpath://input[3]</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>Login7</t>
+  </si>
+  <si>
+    <t>xpath://input[4]</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>Login8</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>Login9</t>
+  </si>
+  <si>
+    <t>func9</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>Login10</t>
+  </si>
+  <si>
+    <t>xpath://input[5]</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>Login11</t>
+  </si>
+  <si>
+    <t>Open Url</t>
+  </si>
+  <si>
+    <t>click on button</t>
+  </si>
+  <si>
+    <t>Login 5</t>
+  </si>
+  <si>
+    <t>click again</t>
+  </si>
+  <si>
+    <t>fun5</t>
+  </si>
+  <si>
+    <t>Login 6</t>
+  </si>
+  <si>
+    <t>summary 6</t>
+  </si>
+  <si>
+    <t>desc6</t>
+  </si>
+  <si>
+    <t>data6</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>Login 7</t>
+  </si>
+  <si>
+    <t>summary 7</t>
+  </si>
+  <si>
+    <t>desc7</t>
+  </si>
+  <si>
+    <t>Login 8</t>
+  </si>
+  <si>
+    <t>summary 8</t>
+  </si>
+  <si>
+    <t>desc8</t>
+  </si>
+  <si>
+    <t>user should get webpage</t>
+  </si>
+  <si>
+    <t>data8</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>Login 9</t>
+  </si>
+  <si>
+    <t>Desc9</t>
+  </si>
+  <si>
+    <t>fun9</t>
+  </si>
+  <si>
+    <t>Login 10</t>
+  </si>
+  <si>
+    <t>Desc10</t>
+  </si>
+  <si>
+    <t>data10</t>
+  </si>
+  <si>
+    <t>x10</t>
+  </si>
+  <si>
+    <t>login 11</t>
+  </si>
+  <si>
+    <t>Desc11</t>
+  </si>
+  <si>
+    <t>SUMMARY 1</t>
+  </si>
+  <si>
+    <t>Login 2</t>
+  </si>
+  <si>
+    <t>summary 2</t>
+  </si>
+  <si>
+    <t>Desc2</t>
+  </si>
+  <si>
+    <t>some2</t>
+  </si>
+  <si>
+    <t>login 3</t>
+  </si>
+  <si>
+    <t>login 4</t>
+  </si>
+  <si>
+    <t>summar 3</t>
+  </si>
+  <si>
+    <t>desc3</t>
+  </si>
+  <si>
+    <t>some 3</t>
+  </si>
+  <si>
+    <t>data3</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Close_Browser</t>
+  </si>
+  <si>
+    <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>TC 01</t>
+  </si>
+  <si>
+    <t>TC NAME 1</t>
+  </si>
+  <si>
+    <t>SMOKE</t>
+  </si>
+  <si>
+    <t>STEP 1</t>
+  </si>
+  <si>
+    <t>FUN1</t>
+  </si>
+  <si>
+    <t>DATA 1</t>
+  </si>
+  <si>
+    <t>XPATH1</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +375,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,7 +397,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -163,12 +420,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -177,6 +475,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -479,198 +798,1130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
+      <c r="K1" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>106</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="K2" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>